--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Fzd2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H2">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I2">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J2">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.06966780665511112</v>
+        <v>0.08136529827444446</v>
       </c>
       <c r="R2">
-        <v>0.627010259896</v>
+        <v>0.7322876844700001</v>
       </c>
       <c r="S2">
-        <v>0.002760881335252421</v>
+        <v>0.002626887252710658</v>
       </c>
       <c r="T2">
-        <v>0.00276088133525242</v>
+        <v>0.002626887252710658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H3">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I3">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J3">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>4.492688678270222</v>
+        <v>6.030341102091778</v>
       </c>
       <c r="R3">
-        <v>40.434198104432</v>
+        <v>54.273069918826</v>
       </c>
       <c r="S3">
-        <v>0.1780417801631212</v>
+        <v>0.19469019971082</v>
       </c>
       <c r="T3">
-        <v>0.1780417801631211</v>
+        <v>0.19469019971082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H4">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I4">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J4">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>0.8979810241137777</v>
+        <v>1.194413172591556</v>
       </c>
       <c r="R4">
-        <v>8.081829217024</v>
+        <v>10.749718553324</v>
       </c>
       <c r="S4">
-        <v>0.03558629398453578</v>
+        <v>0.03856175549147983</v>
       </c>
       <c r="T4">
-        <v>0.03558629398453577</v>
+        <v>0.03856175549147983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3346426666666666</v>
+        <v>0.4491763333333333</v>
       </c>
       <c r="H5">
-        <v>1.003928</v>
+        <v>1.347529</v>
       </c>
       <c r="I5">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="J5">
-        <v>0.2170366535044529</v>
+        <v>0.236099761434867</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.01634394784</v>
+        <v>0.006842752262</v>
       </c>
       <c r="R5">
-        <v>0.14709553056</v>
+        <v>0.061584770358</v>
       </c>
       <c r="S5">
-        <v>0.0006476980215435655</v>
+        <v>0.000220918979856435</v>
       </c>
       <c r="T5">
-        <v>0.0006476980215435654</v>
+        <v>0.000220918979856435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.572622</v>
       </c>
       <c r="I6">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J6">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N6">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O6">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P6">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q6">
-        <v>0.247922897606</v>
+        <v>0.21571888594</v>
       </c>
       <c r="R6">
-        <v>2.231306078454</v>
+        <v>1.94146997346</v>
       </c>
       <c r="S6">
-        <v>0.009824992825892069</v>
+        <v>0.006964507027717888</v>
       </c>
       <c r="T6">
-        <v>0.009824992825892066</v>
+        <v>0.006964507027717888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.572622</v>
       </c>
       <c r="I7">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J7">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P7">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q7">
         <v>15.987878026252</v>
@@ -883,10 +883,10 @@
         <v>143.890902236268</v>
       </c>
       <c r="S7">
-        <v>0.6335872500118838</v>
+        <v>0.5161703315262746</v>
       </c>
       <c r="T7">
-        <v>0.6335872500118834</v>
+        <v>0.5161703315262747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>3.572622</v>
       </c>
       <c r="I8">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J8">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N8">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q8">
-        <v>3.195594467264</v>
+        <v>3.166675283048</v>
       </c>
       <c r="R8">
-        <v>28.760350205376</v>
+        <v>28.500077547432</v>
       </c>
       <c r="S8">
-        <v>0.1266389390350904</v>
+        <v>0.1022364461376947</v>
       </c>
       <c r="T8">
-        <v>0.1266389390350903</v>
+        <v>0.1022364461376947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>3.572622</v>
       </c>
       <c r="I9">
-        <v>0.7723561083228934</v>
+        <v>0.6259569937989885</v>
       </c>
       <c r="J9">
-        <v>0.7723561083228933</v>
+        <v>0.6259569937989886</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N9">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q9">
-        <v>0.05816228616</v>
+        <v>0.018141774516</v>
       </c>
       <c r="R9">
-        <v>0.52346057544</v>
+        <v>0.163275970644</v>
       </c>
       <c r="S9">
-        <v>0.002304926450027309</v>
+        <v>0.000585709107301332</v>
       </c>
       <c r="T9">
-        <v>0.002304926450027308</v>
+        <v>0.0005857091073013321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H10">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I10">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J10">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N10">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O10">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P10">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q10">
-        <v>0.003404876578333333</v>
+        <v>0.01179375938444445</v>
       </c>
       <c r="R10">
-        <v>0.030643889205</v>
+        <v>0.10614383446</v>
       </c>
       <c r="S10">
-        <v>0.0001349326273539138</v>
+        <v>0.0003807627679804674</v>
       </c>
       <c r="T10">
-        <v>0.0001349326273539138</v>
+        <v>0.0003807627679804673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H11">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I11">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J11">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>40.275994</v>
       </c>
       <c r="O11">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P11">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q11">
-        <v>0.2195712939566667</v>
+        <v>0.8740875222297778</v>
       </c>
       <c r="R11">
-        <v>1.97614164561</v>
+        <v>7.866787700068</v>
       </c>
       <c r="S11">
-        <v>0.008701440684694063</v>
+        <v>0.02822000802054486</v>
       </c>
       <c r="T11">
-        <v>0.008701440684694061</v>
+        <v>0.02822000802054486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H12">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I12">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J12">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N12">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q12">
-        <v>0.04388705061333333</v>
+        <v>0.1731281254035556</v>
       </c>
       <c r="R12">
-        <v>0.39498345552</v>
+        <v>1.558153128632</v>
       </c>
       <c r="S12">
-        <v>0.001739209897872405</v>
+        <v>0.005589459823207385</v>
       </c>
       <c r="T12">
-        <v>0.001739209897872405</v>
+        <v>0.005589459823207384</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.016355</v>
+        <v>0.06510733333333334</v>
       </c>
       <c r="H13">
-        <v>0.049065</v>
+        <v>0.195322</v>
       </c>
       <c r="I13">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="J13">
-        <v>0.0106072381726538</v>
+        <v>0.03422225243611164</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N13">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q13">
-        <v>0.0007987781999999999</v>
+        <v>0.0009918451160000001</v>
       </c>
       <c r="R13">
-        <v>0.007189003800000001</v>
+        <v>0.008926606044</v>
       </c>
       <c r="S13">
-        <v>3.165496273341818E-05</v>
+        <v>3.202182437893255E-05</v>
       </c>
       <c r="T13">
-        <v>3.165496273341817E-05</v>
+        <v>3.202182437893255E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J14">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1811433333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.5434300000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0111261749556462</v>
+      </c>
+      <c r="P14">
+        <v>0.01112617495564619</v>
+      </c>
+      <c r="Q14">
+        <v>0.03574459129888889</v>
+      </c>
+      <c r="R14">
+        <v>0.32170132169</v>
+      </c>
+      <c r="S14">
+        <v>0.001154017907237183</v>
+      </c>
+      <c r="T14">
+        <v>0.001154017907237183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J15">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.42533133333333</v>
+      </c>
+      <c r="N15">
+        <v>40.275994</v>
+      </c>
+      <c r="O15">
+        <v>0.8246098959508241</v>
+      </c>
+      <c r="P15">
+        <v>0.8246098959508241</v>
+      </c>
+      <c r="Q15">
+        <v>2.649189306233555</v>
+      </c>
+      <c r="R15">
+        <v>23.84270375610199</v>
+      </c>
+      <c r="S15">
+        <v>0.08552935669318461</v>
+      </c>
+      <c r="T15">
+        <v>0.08552935669318461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J16">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.659118666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.977356</v>
+      </c>
+      <c r="O16">
+        <v>0.1633282272592126</v>
+      </c>
+      <c r="P16">
+        <v>0.1633282272592126</v>
+      </c>
+      <c r="Q16">
+        <v>0.5247176818831111</v>
+      </c>
+      <c r="R16">
+        <v>4.722459136947999</v>
+      </c>
+      <c r="S16">
+        <v>0.01694056580683065</v>
+      </c>
+      <c r="T16">
+        <v>0.01694056580683065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1973276666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.5919829999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="J17">
+        <v>0.1037209923300328</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.015234</v>
+      </c>
+      <c r="N17">
+        <v>0.045702</v>
+      </c>
+      <c r="O17">
+        <v>0.0009357018343171013</v>
+      </c>
+      <c r="P17">
+        <v>0.0009357018343171013</v>
+      </c>
+      <c r="Q17">
+        <v>0.003006089673999999</v>
+      </c>
+      <c r="R17">
+        <v>0.027054807066</v>
+      </c>
+      <c r="S17">
+        <v>9.705192278040174E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.705192278040174E-05</v>
       </c>
     </row>
   </sheetData>
